--- a/6-resampling/6-resampling-solution.xlsx
+++ b/6-resampling/6-resampling-solution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\6-resampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBEC2C-FD75-44C1-8F67-63142E90EC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11185E-0776-4567-8BB8-CE4BC59D2270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,947 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="91">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="34"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="40"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="41"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="42"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="43"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="44"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="45"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="46"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="47"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="48"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="49"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="50"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="51"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="52"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="53"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="54"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="55"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="56"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="57"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="58"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="59"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="60"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="61"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="62"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="63"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="64"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="65"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="66"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="67"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="68"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="69"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="70"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="71"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="72"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="73"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="74"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="75"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="76"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="77"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="78"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="79"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="80"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="81"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="82"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="83"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="84"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="85"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="86"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="87"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="88"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="89"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="90"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="91"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="92"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="93"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="94"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="95"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="96"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="97"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="98"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="99"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="100"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="91">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
+    <bk>
+      <rc t="2" v="23"/>
+    </bk>
+    <bk>
+      <rc t="2" v="24"/>
+    </bk>
+    <bk>
+      <rc t="2" v="25"/>
+    </bk>
+    <bk>
+      <rc t="2" v="26"/>
+    </bk>
+    <bk>
+      <rc t="2" v="27"/>
+    </bk>
+    <bk>
+      <rc t="2" v="28"/>
+    </bk>
+    <bk>
+      <rc t="2" v="29"/>
+    </bk>
+    <bk>
+      <rc t="2" v="30"/>
+    </bk>
+    <bk>
+      <rc t="2" v="31"/>
+    </bk>
+    <bk>
+      <rc t="2" v="32"/>
+    </bk>
+    <bk>
+      <rc t="2" v="33"/>
+    </bk>
+    <bk>
+      <rc t="2" v="34"/>
+    </bk>
+    <bk>
+      <rc t="2" v="35"/>
+    </bk>
+    <bk>
+      <rc t="2" v="36"/>
+    </bk>
+    <bk>
+      <rc t="2" v="37"/>
+    </bk>
+    <bk>
+      <rc t="2" v="38"/>
+    </bk>
+    <bk>
+      <rc t="2" v="39"/>
+    </bk>
+    <bk>
+      <rc t="2" v="40"/>
+    </bk>
+    <bk>
+      <rc t="2" v="41"/>
+    </bk>
+    <bk>
+      <rc t="2" v="42"/>
+    </bk>
+    <bk>
+      <rc t="2" v="43"/>
+    </bk>
+    <bk>
+      <rc t="2" v="44"/>
+    </bk>
+    <bk>
+      <rc t="2" v="45"/>
+    </bk>
+    <bk>
+      <rc t="2" v="46"/>
+    </bk>
+    <bk>
+      <rc t="2" v="47"/>
+    </bk>
+    <bk>
+      <rc t="2" v="48"/>
+    </bk>
+    <bk>
+      <rc t="2" v="49"/>
+    </bk>
+    <bk>
+      <rc t="2" v="50"/>
+    </bk>
+    <bk>
+      <rc t="2" v="51"/>
+    </bk>
+    <bk>
+      <rc t="2" v="52"/>
+    </bk>
+    <bk>
+      <rc t="2" v="53"/>
+    </bk>
+    <bk>
+      <rc t="2" v="54"/>
+    </bk>
+    <bk>
+      <rc t="2" v="55"/>
+    </bk>
+    <bk>
+      <rc t="2" v="56"/>
+    </bk>
+    <bk>
+      <rc t="2" v="57"/>
+    </bk>
+    <bk>
+      <rc t="2" v="58"/>
+    </bk>
+    <bk>
+      <rc t="2" v="59"/>
+    </bk>
+    <bk>
+      <rc t="2" v="60"/>
+    </bk>
+    <bk>
+      <rc t="2" v="61"/>
+    </bk>
+    <bk>
+      <rc t="2" v="62"/>
+    </bk>
+    <bk>
+      <rc t="2" v="63"/>
+    </bk>
+    <bk>
+      <rc t="2" v="64"/>
+    </bk>
+    <bk>
+      <rc t="2" v="65"/>
+    </bk>
+    <bk>
+      <rc t="2" v="66"/>
+    </bk>
+    <bk>
+      <rc t="2" v="67"/>
+    </bk>
+    <bk>
+      <rc t="2" v="68"/>
+    </bk>
+    <bk>
+      <rc t="2" v="69"/>
+    </bk>
+    <bk>
+      <rc t="2" v="70"/>
+    </bk>
+    <bk>
+      <rc t="2" v="71"/>
+    </bk>
+    <bk>
+      <rc t="2" v="72"/>
+    </bk>
+    <bk>
+      <rc t="2" v="73"/>
+    </bk>
+    <bk>
+      <rc t="2" v="74"/>
+    </bk>
+    <bk>
+      <rc t="2" v="75"/>
+    </bk>
+    <bk>
+      <rc t="2" v="76"/>
+    </bk>
+    <bk>
+      <rc t="2" v="77"/>
+    </bk>
+    <bk>
+      <rc t="2" v="78"/>
+    </bk>
+    <bk>
+      <rc t="2" v="79"/>
+    </bk>
+    <bk>
+      <rc t="2" v="80"/>
+    </bk>
+    <bk>
+      <rc t="2" v="81"/>
+    </bk>
+    <bk>
+      <rc t="2" v="82"/>
+    </bk>
+    <bk>
+      <rc t="2" v="83"/>
+    </bk>
+    <bk>
+      <rc t="2" v="84"/>
+    </bk>
+    <bk>
+      <rc t="2" v="85"/>
+    </bk>
+    <bk>
+      <rc t="2" v="86"/>
+    </bk>
+    <bk>
+      <rc t="2" v="87"/>
+    </bk>
+    <bk>
+      <rc t="2" v="88"/>
+    </bk>
+    <bk>
+      <rc t="2" v="89"/>
+    </bk>
+    <bk>
+      <rc t="2" v="90"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -49,16 +986,45 @@
 </code>
     </initialization>
   </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>sales_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df_ts = sales_df.set_index('Date')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df_ts.resample('W').sum().head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df_ts.resample('M').sum().head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df_ts.resample('Q').sum().head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df_ts.resample('5W').sum().head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df_ts.resample('W').apply(lambda x: x.max() - x.min()).head()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>(sales_df_ts.resample('H').ffill() / 24).head(72)</code>
+    </pythonScript>
+  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/680d185e-9bb0-8001-ae7f-9fc9f1662d8e</t>
   </si>
 </sst>
 </file>
@@ -82,7 +1048,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,13 +1056,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +1099,657 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Date</v>
+    <v t="s">Sales</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>52.48</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>49.34</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>53.31</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>57.72</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>48.97</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>361</v>
+    <v t="r">5</v>
+    <v>70.03</v>
+    <v>362</v>
+    <v t="r">6</v>
+    <v>61.85</v>
+    <v>363</v>
+    <v t="r">7</v>
+    <v>64.44</v>
+    <v>364</v>
+    <v t="r">8</v>
+    <v>65.92</v>
+    <v>365</v>
+    <v t="r">9</v>
+    <v>60.49</v>
+  </a>
+  <a r="13" c="2">
+    <v t="s"/>
+    <v t="s">Sales</v>
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v t="r">0</v>
+    <v>52.48</v>
+    <v t="r">1</v>
+    <v>49.34</v>
+    <v t="r">2</v>
+    <v>53.31</v>
+    <v t="r">3</v>
+    <v>57.72</v>
+    <v t="r">4</v>
+    <v>48.97</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="r">5</v>
+    <v>70.03</v>
+    <v t="r">6</v>
+    <v>61.85</v>
+    <v t="r">7</v>
+    <v>64.44</v>
+    <v t="r">8</v>
+    <v>65.92</v>
+    <v t="r">9</v>
+    <v>60.49</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="101">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45288</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45289</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45290</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45291</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45292</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Date  Sales
+0   2023-01-01  52.48
+1   2023-01-02  49.34
+2   2023-01-03  53.31
+3   2023-01-04  57.72
+4   2023-01-05  48.97
+..         ...    ...
+361 2023-12-28  70.03
+362 2023-12-29  61.85
+363 2023-12-30  64.44
+364 2023-12-31  65.92
+365 2024-0...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>13</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">            Sales
+Date             
+2023-01-01  52.48
+2023-01-02  49.34
+2023-01-03  53.31
+2023-01-04  57.72
+2023-01-05  48.97
+...           ...
+2023-12-28  70.03
+2023-12-29  61.85
+2023-12-30  64.44
+2023-12-31  65.92
+2024-01-01  60.49
+[366 rows x 1 col...</v>
+    <v>14</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <fb>44957</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44934</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44985</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44941</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45016</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44948</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45046</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44955</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45077</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45107</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44962</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45199</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44997</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45032</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45382</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>45067</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.041666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.083333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.125</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.166666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.208333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.25</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.291666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.333333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.375</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.416666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.458333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.5</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.541666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.583333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.625</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.666666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.708333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.75</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.791666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.833333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.875</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.916666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44927.958333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.041666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.083333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.125</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.166666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.208333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.25</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.291666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.333333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.375</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.416666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.458333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.5</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.541666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.583333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.625</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.666666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.708333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.75</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.791666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.833333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.875</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.916666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44928.958333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.041666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.083333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.125</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.166666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.208333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.25</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.291666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.333333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.375</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.416666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.458333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.5</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.541666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.583333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.625</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.666666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.708333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.75</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.791666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.833333333336</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.875</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.916666666664</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44929.958333333336</fb>
+    <v>6</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="7">
+    <spb s="0">
+      <v>366</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>366</v>
+      <v>1</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="2">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+  </dxfs>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="1"/>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,26 +2110,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D1" t="e" cm="1" vm="1">
+        <f t="array" ref="D1">_xlfn._xlws.PY(0,1,daily_sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -506,15 +2146,19 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
       <c r="B3">
         <v>49.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3" t="e" cm="1" vm="2">
+        <f t="array" ref="D3">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -522,63 +2166,149 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
       <c r="B5">
         <v>57.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5" t="str" cm="1">
+        <f t="array" ref="D5:E11">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G5" t="str" cm="1">
+        <f t="array" ref="G5:H11">_xlfn._xlws.PY(3,0)</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
       <c r="B6">
         <v>48.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D6" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>Date</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
       <c r="B7">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D7" vm="3">
+        <v>44927</v>
+      </c>
+      <c r="E7">
+        <v>52.48</v>
+      </c>
+      <c r="G7" vm="4">
+        <v>44957</v>
+      </c>
+      <c r="H7">
+        <v>1534.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
       <c r="B8">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D8" vm="5">
+        <v>44934</v>
+      </c>
+      <c r="E8">
+        <v>370.52</v>
+      </c>
+      <c r="G8" vm="6">
+        <v>44985</v>
+      </c>
+      <c r="H8">
+        <v>1422.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
       <c r="B9">
         <v>54.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D9" vm="7">
+        <v>44941</v>
+      </c>
+      <c r="E9">
+        <v>331.38</v>
+      </c>
+      <c r="G9" vm="8">
+        <v>45016</v>
+      </c>
+      <c r="H9">
+        <v>1635.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
       <c r="B10">
         <v>47.93</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D10" vm="9">
+        <v>44948</v>
+      </c>
+      <c r="E10">
+        <v>342.6</v>
+      </c>
+      <c r="G10" vm="10">
+        <v>45046</v>
+      </c>
+      <c r="H10">
+        <v>1604.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
       <c r="B11">
         <v>53.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D11" vm="11">
+        <v>44955</v>
+      </c>
+      <c r="E11">
+        <v>340.15999999999997</v>
+      </c>
+      <c r="G11" vm="12">
+        <v>45077</v>
+      </c>
+      <c r="H11">
+        <v>1680.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
@@ -586,7 +2316,7 @@
         <v>48.03</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
@@ -594,63 +2324,149 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
       <c r="B14">
         <v>51.62</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D14" t="str" cm="1">
+        <f t="array" ref="D14:E20">_xlfn._xlws.PY(4,0)</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" ref="G14:H20">_xlfn._xlws.PY(5,0)</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
       <c r="B15">
         <v>40.880000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D15" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Date</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
       <c r="B16">
         <v>41.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D16" vm="8">
+        <v>45016</v>
+      </c>
+      <c r="E16">
+        <v>4592.66</v>
+      </c>
+      <c r="G16" vm="3">
+        <v>44927</v>
+      </c>
+      <c r="H16">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
       <c r="B17">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D17" vm="13">
+        <v>45107</v>
+      </c>
+      <c r="E17">
+        <v>4998.41</v>
+      </c>
+      <c r="G17" vm="14">
+        <v>44962</v>
+      </c>
+      <c r="H17">
+        <v>1739.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
       <c r="B18">
         <v>45.48</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D18" vm="15">
+        <v>45199</v>
+      </c>
+      <c r="E18">
+        <v>5311.84</v>
+      </c>
+      <c r="G18" vm="16">
+        <v>44997</v>
+      </c>
+      <c r="H18">
+        <v>1797.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
       <c r="B19">
         <v>52.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D19" vm="17">
+        <v>45291</v>
+      </c>
+      <c r="E19">
+        <v>5640.21</v>
+      </c>
+      <c r="G19" vm="18">
+        <v>45032</v>
+      </c>
+      <c r="H19">
+        <v>1835.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
       <c r="B20">
         <v>46.08</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D20" vm="19">
+        <v>45382</v>
+      </c>
+      <c r="E20">
+        <v>60.49</v>
+      </c>
+      <c r="G20" vm="20">
+        <v>45067</v>
+      </c>
+      <c r="H20">
+        <v>1905.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
@@ -658,7 +2474,7 @@
         <v>43.59</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
@@ -666,63 +2482,106 @@
         <v>58.01</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
       <c r="B23">
         <v>49.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D23" t="str" cm="1">
+        <f t="array" ref="D23:E29">_xlfn._xlws.PY(4,0)</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
       <c r="B24">
         <v>51.09</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D24" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
       <c r="B25">
         <v>43.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D25" vm="8">
+        <v>45016</v>
+      </c>
+      <c r="E25">
+        <v>4592.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
       <c r="B26">
         <v>48.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D26" vm="13">
+        <v>45107</v>
+      </c>
+      <c r="E26">
+        <v>4998.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
       <c r="B27">
         <v>51.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D27" vm="15">
+        <v>45199</v>
+      </c>
+      <c r="E27">
+        <v>5311.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
       <c r="B28">
         <v>45.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D28" vm="17">
+        <v>45291</v>
+      </c>
+      <c r="E28">
+        <v>5640.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
       <c r="B29">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D29" vm="19">
+        <v>45382</v>
+      </c>
+      <c r="E29">
+        <v>60.49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
@@ -730,7 +2589,7 @@
         <v>47.96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
@@ -738,63 +2597,106 @@
         <v>49.53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
       <c r="B32">
         <v>48.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D32" t="str" cm="1">
+        <f t="array" ref="D32:E38">_xlfn._xlws.PY(6,0)</f>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
       <c r="B33">
         <v>60.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D33" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
       <c r="B34">
         <v>51.03</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D34" vm="3">
+        <v>44927</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
       <c r="B35">
         <v>45.84</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D35" vm="5">
+        <v>44934</v>
+      </c>
+      <c r="E35">
+        <v>9.1300000000000026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
       <c r="B36">
         <v>55.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D36" vm="7">
+        <v>44941</v>
+      </c>
+      <c r="E36">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
       <c r="B37">
         <v>45.09</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D37" vm="9">
+        <v>44948</v>
+      </c>
+      <c r="E37">
+        <v>14.419999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
       <c r="B38">
         <v>52.28</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D38" vm="11">
+        <v>44955</v>
+      </c>
+      <c r="E38">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
@@ -802,7 +2704,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
@@ -810,599 +2712,1044 @@
         <v>44.66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
       <c r="B41">
         <v>52.32</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D41" t="str" cm="1">
+        <f t="array" ref="D41:E114">_xlfn._xlws.PY(7,0)</f>
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
       <c r="B42">
         <v>55.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D42" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
       <c r="B43">
         <v>52.26</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D43" vm="3">
+        <v>44927</v>
+      </c>
+      <c r="E43">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
       <c r="B44">
         <v>50.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D44" vm="21">
+        <v>44927.041666666664</v>
+      </c>
+      <c r="E44">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
       <c r="B45">
         <v>49.97</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D45" vm="22">
+        <v>44927.083333333336</v>
+      </c>
+      <c r="E45">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
       <c r="B46">
         <v>44.11</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D46" vm="23">
+        <v>44927.125</v>
+      </c>
+      <c r="E46">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
       <c r="B47">
         <v>47.94</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D47" vm="24">
+        <v>44927.166666666664</v>
+      </c>
+      <c r="E47">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44973</v>
       </c>
       <c r="B48">
         <v>49.27</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D48" vm="25">
+        <v>44927.208333333336</v>
+      </c>
+      <c r="E48">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44974</v>
       </c>
       <c r="B49">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D49" vm="26">
+        <v>44927.25</v>
+      </c>
+      <c r="E49">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44975</v>
       </c>
       <c r="B50">
         <v>53.36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D50" vm="27">
+        <v>44927.291666666664</v>
+      </c>
+      <c r="E50">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44976</v>
       </c>
       <c r="B51">
         <v>42.86</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D51" vm="28">
+        <v>44927.333333333336</v>
+      </c>
+      <c r="E51">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44977</v>
       </c>
       <c r="B52">
         <v>53.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D52" vm="29">
+        <v>44927.375</v>
+      </c>
+      <c r="E52">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44978</v>
       </c>
       <c r="B53">
         <v>49.82</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D53" vm="30">
+        <v>44927.416666666664</v>
+      </c>
+      <c r="E53">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44979</v>
       </c>
       <c r="B54">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D54" vm="31">
+        <v>44927.458333333336</v>
+      </c>
+      <c r="E54">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44980</v>
       </c>
       <c r="B55">
         <v>54.87</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D55" vm="32">
+        <v>44927.5</v>
+      </c>
+      <c r="E55">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44981</v>
       </c>
       <c r="B56">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D56" vm="33">
+        <v>44927.541666666664</v>
+      </c>
+      <c r="E56">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44982</v>
       </c>
       <c r="B57">
         <v>56.54</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D57" vm="34">
+        <v>44927.583333333336</v>
+      </c>
+      <c r="E57">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44983</v>
       </c>
       <c r="B58">
         <v>47.72</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D58" vm="35">
+        <v>44927.625</v>
+      </c>
+      <c r="E58">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44984</v>
       </c>
       <c r="B59">
         <v>50.41</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D59" vm="36">
+        <v>44927.666666666664</v>
+      </c>
+      <c r="E59">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44985</v>
       </c>
       <c r="B60">
         <v>53.64</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D60" vm="37">
+        <v>44927.708333333336</v>
+      </c>
+      <c r="E60">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44986</v>
       </c>
       <c r="B61">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D61" vm="38">
+        <v>44927.75</v>
+      </c>
+      <c r="E61">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44987</v>
       </c>
       <c r="B62">
         <v>49.66</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D62" vm="39">
+        <v>44927.791666666664</v>
+      </c>
+      <c r="E62">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44988</v>
       </c>
       <c r="B63">
         <v>51.16</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D63" vm="40">
+        <v>44927.833333333336</v>
+      </c>
+      <c r="E63">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44989</v>
       </c>
       <c r="B64">
         <v>46.59</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D64" vm="41">
+        <v>44927.875</v>
+      </c>
+      <c r="E64">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44990</v>
       </c>
       <c r="B65">
         <v>46.18</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D65" vm="42">
+        <v>44927.916666666664</v>
+      </c>
+      <c r="E65">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44991</v>
       </c>
       <c r="B66">
         <v>56.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D66" vm="43">
+        <v>44927.958333333336</v>
+      </c>
+      <c r="E66">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44992</v>
       </c>
       <c r="B67">
         <v>59.01</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D67" vm="44">
+        <v>44928</v>
+      </c>
+      <c r="E67">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44993</v>
       </c>
       <c r="B68">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D68" vm="45">
+        <v>44928.041666666664</v>
+      </c>
+      <c r="E68">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44994</v>
       </c>
       <c r="B69">
         <v>57.31</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D69" vm="46">
+        <v>44928.083333333336</v>
+      </c>
+      <c r="E69">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44995</v>
       </c>
       <c r="B70">
         <v>54.14</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D70" vm="47">
+        <v>44928.125</v>
+      </c>
+      <c r="E70">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44996</v>
       </c>
       <c r="B71">
         <v>49.14</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D71" vm="48">
+        <v>44928.166666666664</v>
+      </c>
+      <c r="E71">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44997</v>
       </c>
       <c r="B72">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D72" vm="49">
+        <v>44928.208333333336</v>
+      </c>
+      <c r="E72">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44998</v>
       </c>
       <c r="B73">
         <v>60.12</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D73" vm="50">
+        <v>44928.25</v>
+      </c>
+      <c r="E73">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44999</v>
       </c>
       <c r="B74">
         <v>52.29</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D74" vm="51">
+        <v>44928.291666666664</v>
+      </c>
+      <c r="E74">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>45000</v>
       </c>
       <c r="B75">
         <v>60.32</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D75" vm="52">
+        <v>44928.333333333336</v>
+      </c>
+      <c r="E75">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>45001</v>
       </c>
       <c r="B76">
         <v>39.44</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D76" vm="53">
+        <v>44928.375</v>
+      </c>
+      <c r="E76">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>45002</v>
       </c>
       <c r="B77">
         <v>56.68</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D77" vm="54">
+        <v>44928.416666666664</v>
+      </c>
+      <c r="E77">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>45003</v>
       </c>
       <c r="B78">
         <v>53.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D78" vm="55">
+        <v>44928.458333333336</v>
+      </c>
+      <c r="E78">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>45004</v>
       </c>
       <c r="B79">
         <v>51.14</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D79" vm="56">
+        <v>44928.5</v>
+      </c>
+      <c r="E79">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>45005</v>
       </c>
       <c r="B80">
         <v>53.13</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D80" vm="57">
+        <v>44928.541666666664</v>
+      </c>
+      <c r="E80">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>45006</v>
       </c>
       <c r="B81">
         <v>42.77</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D81" vm="58">
+        <v>44928.583333333336</v>
+      </c>
+      <c r="E81">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>45007</v>
       </c>
       <c r="B82">
         <v>51.64</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D82" vm="59">
+        <v>44928.625</v>
+      </c>
+      <c r="E82">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>45008</v>
       </c>
       <c r="B83">
         <v>54.56</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D83" vm="60">
+        <v>44928.666666666664</v>
+      </c>
+      <c r="E83">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>45009</v>
       </c>
       <c r="B84">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D84" vm="61">
+        <v>44928.708333333336</v>
+      </c>
+      <c r="E84">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>45010</v>
       </c>
       <c r="B85">
         <v>50.25</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D85" vm="62">
+        <v>44928.75</v>
+      </c>
+      <c r="E85">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>45011</v>
       </c>
       <c r="B86">
         <v>48.83</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D86" vm="63">
+        <v>44928.791666666664</v>
+      </c>
+      <c r="E86">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>45012</v>
       </c>
       <c r="B87">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D87" vm="64">
+        <v>44928.833333333336</v>
+      </c>
+      <c r="E87">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>45013</v>
       </c>
       <c r="B88">
         <v>57.52</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D88" vm="65">
+        <v>44928.875</v>
+      </c>
+      <c r="E88">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>45014</v>
       </c>
       <c r="B89">
         <v>54.62</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D89" vm="66">
+        <v>44928.916666666664</v>
+      </c>
+      <c r="E89">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>45015</v>
       </c>
       <c r="B90">
         <v>50.36</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D90" vm="67">
+        <v>44928.958333333336</v>
+      </c>
+      <c r="E90">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>45016</v>
       </c>
       <c r="B91">
         <v>55.61</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D91" vm="68">
+        <v>44929</v>
+      </c>
+      <c r="E91">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>45017</v>
       </c>
       <c r="B92">
         <v>53.57</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D92" vm="69">
+        <v>44929.041666666664</v>
+      </c>
+      <c r="E92">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>45018</v>
       </c>
       <c r="B93">
         <v>57.96</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D93" vm="70">
+        <v>44929.083333333336</v>
+      </c>
+      <c r="E93">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>45019</v>
       </c>
       <c r="B94">
         <v>49.64</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D94" vm="71">
+        <v>44929.125</v>
+      </c>
+      <c r="E94">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>45020</v>
       </c>
       <c r="B95">
         <v>51.55</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D95" vm="72">
+        <v>44929.166666666664</v>
+      </c>
+      <c r="E95">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>45021</v>
       </c>
       <c r="B96">
         <v>51.26</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D96" vm="73">
+        <v>44929.208333333336</v>
+      </c>
+      <c r="E96">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>45022</v>
       </c>
       <c r="B97">
         <v>45.94</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D97" vm="74">
+        <v>44929.25</v>
+      </c>
+      <c r="E97">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>45023</v>
       </c>
       <c r="B98">
         <v>54.77</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D98" vm="75">
+        <v>44929.291666666664</v>
+      </c>
+      <c r="E98">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>45024</v>
       </c>
       <c r="B99">
         <v>54.63</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D99" vm="76">
+        <v>44929.333333333336</v>
+      </c>
+      <c r="E99">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>45025</v>
       </c>
       <c r="B100">
         <v>53.38</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D100" vm="77">
+        <v>44929.375</v>
+      </c>
+      <c r="E100">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>45026</v>
       </c>
       <c r="B101">
         <v>52.22</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D101" vm="78">
+        <v>44929.416666666664</v>
+      </c>
+      <c r="E101">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>45027</v>
       </c>
       <c r="B102">
         <v>46.35</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D102" vm="79">
+        <v>44929.458333333336</v>
+      </c>
+      <c r="E102">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>45028</v>
       </c>
       <c r="B103">
         <v>51.36</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D103" vm="80">
+        <v>44929.5</v>
+      </c>
+      <c r="E103">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>45029</v>
       </c>
       <c r="B104">
         <v>51.78</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D104" vm="81">
+        <v>44929.541666666664</v>
+      </c>
+      <c r="E104">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>45030</v>
       </c>
       <c r="B105">
         <v>49.52</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D105" vm="82">
+        <v>44929.583333333336</v>
+      </c>
+      <c r="E105">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>45031</v>
       </c>
       <c r="B106">
         <v>52.76</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D106" vm="83">
+        <v>44929.625</v>
+      </c>
+      <c r="E106">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>45032</v>
       </c>
       <c r="B107">
         <v>55.62</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D107" vm="84">
+        <v>44929.666666666664</v>
+      </c>
+      <c r="E107">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>45033</v>
       </c>
       <c r="B108">
         <v>63.06</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D108" vm="85">
+        <v>44929.708333333336</v>
+      </c>
+      <c r="E108">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>45034</v>
       </c>
       <c r="B109">
         <v>54.54</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D109" vm="86">
+        <v>44929.75</v>
+      </c>
+      <c r="E109">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>45035</v>
       </c>
       <c r="B110">
         <v>54.99</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D110" vm="87">
+        <v>44929.791666666664</v>
+      </c>
+      <c r="E110">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>45036</v>
       </c>
       <c r="B111">
         <v>53.36</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D111" vm="88">
+        <v>44929.833333333336</v>
+      </c>
+      <c r="E111">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>45037</v>
       </c>
       <c r="B112">
         <v>44.17</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D112" vm="89">
+        <v>44929.875</v>
+      </c>
+      <c r="E112">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>45038</v>
       </c>
       <c r="B113">
         <v>53.67</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D113" vm="90">
+        <v>44929.916666666664</v>
+      </c>
+      <c r="E113">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>45039</v>
       </c>
       <c r="B114">
         <v>54.14</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D114" vm="91">
+        <v>44929.958333333336</v>
+      </c>
+      <c r="E114">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>45040</v>
       </c>
@@ -1410,7 +3757,7 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>45041</v>
       </c>
@@ -1418,7 +3765,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>45042</v>
       </c>
@@ -1426,7 +3773,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>45043</v>
       </c>
@@ -1434,7 +3781,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>45044</v>
       </c>
@@ -1442,7 +3789,7 @@
         <v>48.16</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>45045</v>
       </c>
@@ -1450,7 +3797,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>45046</v>
       </c>
@@ -1458,7 +3805,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>45047</v>
       </c>
@@ -1466,7 +3813,7 @@
         <v>58.06</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>45048</v>
       </c>
@@ -1474,7 +3821,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>45049</v>
       </c>
@@ -1482,7 +3829,7 @@
         <v>61.19</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>45050</v>
       </c>
@@ -1490,7 +3837,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>45051</v>
       </c>
@@ -1498,7 +3845,7 @@
         <v>57.18</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>45052</v>
       </c>
@@ -1506,7 +3853,7 @@
         <v>65.23</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>45053</v>
       </c>

--- a/6-resampling/6-resampling-solution.xlsx
+++ b/6-resampling/6-resampling-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\6-resampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11185E-0776-4567-8BB8-CE4BC59D2270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEAF62-12AA-49E2-AD81-856F7054AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1009,22 +1009,19 @@
       <code>sales_df_ts.resample('W').apply(lambda x: x.max() - x.min()).head()</code>
     </pythonScript>
     <pythonScript>
-      <code>(sales_df_ts.resample('H').ffill() / 24).head(72)</code>
+      <code>(sales_df_ts.resample('H').ffill() /24).head(72)</code>
     </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Sales</t>
-  </si>
-  <si>
-    <t>https://chatgpt.com/c/680d185e-9bb0-8001-ae7f-9fc9f1662d8e</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1045,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1056,27 +1053,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2113,17 +2096,16 @@
   <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.20703125" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2134,11 +2116,8 @@
         <f t="array" ref="D1">_xlfn._xlws.PY(0,1,daily_sales[#All])</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -2146,7 +2125,7 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
@@ -2158,7 +2137,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -2166,157 +2145,157 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
       <c r="B5">
         <v>57.72</v>
       </c>
-      <c r="D5" t="str" cm="1">
-        <f t="array" ref="D5:E11">_xlfn._xlws.PY(2,0)</f>
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v>Sales</v>
-      </c>
-      <c r="G5" t="str" cm="1">
-        <f t="array" ref="G5:H11">_xlfn._xlws.PY(3,0)</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v>Sales</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
       <c r="B6">
         <v>48.97</v>
       </c>
-      <c r="D6" t="str">
-        <v>Date</v>
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6:E12">_xlfn._xlws.PY(2,0)</f>
+        <v/>
       </c>
       <c r="E6" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G6" t="str" cm="1">
+        <f t="array" ref="G6:H12">_xlfn._xlws.PY(3,0)</f>
         <v/>
       </c>
-      <c r="G6" t="str">
-        <v>Date</v>
-      </c>
       <c r="H6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
       <c r="B7">
         <v>49</v>
       </c>
-      <c r="D7" vm="3">
-        <v>44927</v>
-      </c>
-      <c r="E7">
-        <v>52.48</v>
-      </c>
-      <c r="G7" vm="4">
-        <v>44957</v>
-      </c>
-      <c r="H7">
-        <v>1534.69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D7" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>Date</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
       <c r="B8">
         <v>58.1</v>
       </c>
-      <c r="D8" vm="5">
-        <v>44934</v>
+      <c r="D8" vm="3">
+        <v>44927</v>
       </c>
       <c r="E8">
-        <v>370.52</v>
-      </c>
-      <c r="G8" vm="6">
-        <v>44985</v>
+        <v>52.48</v>
+      </c>
+      <c r="G8" vm="4">
+        <v>44957</v>
       </c>
       <c r="H8">
-        <v>1422.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1534.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
       <c r="B9">
         <v>54.08</v>
       </c>
-      <c r="D9" vm="7">
-        <v>44941</v>
+      <c r="D9" vm="5">
+        <v>44934</v>
       </c>
       <c r="E9">
-        <v>331.38</v>
-      </c>
-      <c r="G9" vm="8">
-        <v>45016</v>
+        <v>370.52</v>
+      </c>
+      <c r="G9" vm="6">
+        <v>44985</v>
       </c>
       <c r="H9">
-        <v>1635.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1422.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
       <c r="B10">
         <v>47.93</v>
       </c>
-      <c r="D10" vm="9">
-        <v>44948</v>
+      <c r="D10" vm="7">
+        <v>44941</v>
       </c>
       <c r="E10">
-        <v>342.6</v>
-      </c>
-      <c r="G10" vm="10">
-        <v>45046</v>
+        <v>331.38</v>
+      </c>
+      <c r="G10" vm="8">
+        <v>45016</v>
       </c>
       <c r="H10">
-        <v>1604.38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1635.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
       <c r="B11">
         <v>53.02</v>
       </c>
-      <c r="D11" vm="11">
-        <v>44955</v>
+      <c r="D11" vm="9">
+        <v>44948</v>
       </c>
       <c r="E11">
-        <v>340.15999999999997</v>
-      </c>
-      <c r="G11" vm="12">
-        <v>45077</v>
+        <v>342.6</v>
+      </c>
+      <c r="G11" vm="10">
+        <v>45046</v>
       </c>
       <c r="H11">
-        <v>1680.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1604.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44937</v>
       </c>
       <c r="B12">
         <v>48.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D12" vm="11">
+        <v>44955</v>
+      </c>
+      <c r="E12">
+        <v>340.15999999999997</v>
+      </c>
+      <c r="G12" vm="12">
+        <v>45077</v>
+      </c>
+      <c r="H12">
+        <v>1680.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44938</v>
       </c>
@@ -2324,7 +2303,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>44939</v>
       </c>
@@ -2346,7 +2325,7 @@
         <v>Sales</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>44940</v>
       </c>
@@ -2366,7 +2345,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>44941</v>
       </c>
@@ -2386,7 +2365,7 @@
         <v>52.48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>44942</v>
       </c>
@@ -2406,7 +2385,7 @@
         <v>1739.77</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>44943</v>
       </c>
@@ -2426,7 +2405,7 @@
         <v>1797.49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>44944</v>
       </c>
@@ -2446,7 +2425,7 @@
         <v>1835.23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>44945</v>
       </c>
@@ -2466,7 +2445,7 @@
         <v>1905.36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>44946</v>
       </c>
@@ -2474,1282 +2453,1239 @@
         <v>43.59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>44947</v>
       </c>
       <c r="B22">
         <v>58.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D22" t="str" cm="1">
+        <f t="array" ref="D22:E28">_xlfn._xlws.PY(6,0)</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>44948</v>
       </c>
       <c r="B23">
         <v>49.59</v>
       </c>
-      <c r="D23" t="str" cm="1">
-        <f t="array" ref="D23:E29">_xlfn._xlws.PY(4,0)</f>
+      <c r="D23" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E23" t="str">
         <v/>
       </c>
-      <c r="E23" t="str">
-        <v>Sales</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>44949</v>
       </c>
       <c r="B24">
         <v>51.09</v>
       </c>
-      <c r="D24" t="str">
-        <v>Date</v>
-      </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D24" vm="3">
+        <v>44927</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>44950</v>
       </c>
       <c r="B25">
         <v>43.66</v>
       </c>
-      <c r="D25" vm="8">
-        <v>45016</v>
+      <c r="D25" vm="5">
+        <v>44934</v>
       </c>
       <c r="E25">
-        <v>4592.66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9.1300000000000026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>44951</v>
       </c>
       <c r="B26">
         <v>48.1</v>
       </c>
-      <c r="D26" vm="13">
-        <v>45107</v>
+      <c r="D26" vm="7">
+        <v>44941</v>
       </c>
       <c r="E26">
-        <v>4998.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>44952</v>
       </c>
       <c r="B27">
         <v>51.41</v>
       </c>
-      <c r="D27" vm="15">
-        <v>45199</v>
+      <c r="D27" vm="9">
+        <v>44948</v>
       </c>
       <c r="E27">
-        <v>5311.84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+        <v>14.419999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>44953</v>
       </c>
       <c r="B28">
         <v>45.14</v>
       </c>
-      <c r="D28" vm="17">
-        <v>45291</v>
+      <c r="D28" vm="11">
+        <v>44955</v>
       </c>
       <c r="E28">
-        <v>5640.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>44954</v>
       </c>
       <c r="B29">
         <v>52.8</v>
       </c>
-      <c r="D29" vm="19">
-        <v>45382</v>
-      </c>
-      <c r="E29">
-        <v>60.49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>44955</v>
       </c>
       <c r="B30">
         <v>47.96</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D30" t="str" cm="1">
+        <f t="array" ref="D30:E103">_xlfn._xlws.PY(7,0)</f>
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>44956</v>
       </c>
       <c r="B31">
         <v>49.53</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D31" t="str">
+        <v>Date</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>44957</v>
       </c>
       <c r="B32">
         <v>48.02</v>
       </c>
-      <c r="D32" t="str" cm="1">
-        <f t="array" ref="D32:E38">_xlfn._xlws.PY(6,0)</f>
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <v>Sales</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D32" vm="3">
+        <v>44927</v>
+      </c>
+      <c r="E32">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>44958</v>
       </c>
       <c r="B33">
         <v>60.32</v>
       </c>
-      <c r="D33" t="str">
-        <v>Date</v>
-      </c>
-      <c r="E33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D33" vm="21">
+        <v>44927.041666666664</v>
+      </c>
+      <c r="E33">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>44959</v>
       </c>
       <c r="B34">
         <v>51.03</v>
       </c>
-      <c r="D34" vm="3">
-        <v>44927</v>
+      <c r="D34" vm="22">
+        <v>44927.083333333336</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>44960</v>
       </c>
       <c r="B35">
         <v>45.84</v>
       </c>
-      <c r="D35" vm="5">
-        <v>44934</v>
+      <c r="D35" vm="23">
+        <v>44927.125</v>
       </c>
       <c r="E35">
-        <v>9.1300000000000026</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>44961</v>
       </c>
       <c r="B36">
         <v>55.28</v>
       </c>
-      <c r="D36" vm="7">
-        <v>44941</v>
+      <c r="D36" vm="24">
+        <v>44927.166666666664</v>
       </c>
       <c r="E36">
-        <v>12.14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>44962</v>
       </c>
       <c r="B37">
         <v>45.09</v>
       </c>
-      <c r="D37" vm="9">
-        <v>44948</v>
+      <c r="D37" vm="25">
+        <v>44927.208333333336</v>
       </c>
       <c r="E37">
-        <v>14.419999999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44963</v>
       </c>
       <c r="B38">
         <v>52.28</v>
       </c>
-      <c r="D38" vm="11">
-        <v>44955</v>
+      <c r="D38" vm="26">
+        <v>44927.25</v>
       </c>
       <c r="E38">
-        <v>9.14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44964</v>
       </c>
       <c r="B39">
         <v>41.47</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D39" vm="27">
+        <v>44927.291666666664</v>
+      </c>
+      <c r="E39">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44965</v>
       </c>
       <c r="B40">
         <v>44.66</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D40" vm="28">
+        <v>44927.333333333336</v>
+      </c>
+      <c r="E40">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44966</v>
       </c>
       <c r="B41">
         <v>52.32</v>
       </c>
-      <c r="D41" t="str" cm="1">
-        <f t="array" ref="D41:E114">_xlfn._xlws.PY(7,0)</f>
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <v>Sales</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D41" vm="29">
+        <v>44927.375</v>
+      </c>
+      <c r="E41">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44967</v>
       </c>
       <c r="B42">
         <v>55.06</v>
       </c>
-      <c r="D42" t="str">
-        <v>Date</v>
-      </c>
-      <c r="E42" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D42" vm="30">
+        <v>44927.416666666664</v>
+      </c>
+      <c r="E42">
+        <v>2.1866666666666665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44968</v>
       </c>
       <c r="B43">
         <v>52.26</v>
       </c>
-      <c r="D43" vm="3">
-        <v>44927</v>
+      <c r="D43" vm="31">
+        <v>44927.458333333336</v>
       </c>
       <c r="E43">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44969</v>
       </c>
       <c r="B44">
         <v>50.86</v>
       </c>
-      <c r="D44" vm="21">
-        <v>44927.041666666664</v>
+      <c r="D44" vm="32">
+        <v>44927.5</v>
       </c>
       <c r="E44">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44970</v>
       </c>
       <c r="B45">
         <v>49.97</v>
       </c>
-      <c r="D45" vm="22">
-        <v>44927.083333333336</v>
+      <c r="D45" vm="33">
+        <v>44927.541666666664</v>
       </c>
       <c r="E45">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44971</v>
       </c>
       <c r="B46">
         <v>44.11</v>
       </c>
-      <c r="D46" vm="23">
-        <v>44927.125</v>
+      <c r="D46" vm="34">
+        <v>44927.583333333336</v>
       </c>
       <c r="E46">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44972</v>
       </c>
       <c r="B47">
         <v>47.94</v>
       </c>
-      <c r="D47" vm="24">
-        <v>44927.166666666664</v>
+      <c r="D47" vm="35">
+        <v>44927.625</v>
       </c>
       <c r="E47">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>44973</v>
       </c>
       <c r="B48">
         <v>49.27</v>
       </c>
-      <c r="D48" vm="25">
-        <v>44927.208333333336</v>
+      <c r="D48" vm="36">
+        <v>44927.666666666664</v>
       </c>
       <c r="E48">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>44974</v>
       </c>
       <c r="B49">
         <v>56.9</v>
       </c>
-      <c r="D49" vm="26">
-        <v>44927.25</v>
+      <c r="D49" vm="37">
+        <v>44927.708333333336</v>
       </c>
       <c r="E49">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>44975</v>
       </c>
       <c r="B50">
         <v>53.36</v>
       </c>
-      <c r="D50" vm="27">
-        <v>44927.291666666664</v>
+      <c r="D50" vm="38">
+        <v>44927.75</v>
       </c>
       <c r="E50">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>44976</v>
       </c>
       <c r="B51">
         <v>42.86</v>
       </c>
-      <c r="D51" vm="28">
-        <v>44927.333333333336</v>
+      <c r="D51" vm="39">
+        <v>44927.791666666664</v>
       </c>
       <c r="E51">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>44977</v>
       </c>
       <c r="B52">
         <v>53.33</v>
       </c>
-      <c r="D52" vm="29">
-        <v>44927.375</v>
+      <c r="D52" vm="40">
+        <v>44927.833333333336</v>
       </c>
       <c r="E52">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>44978</v>
       </c>
       <c r="B53">
         <v>49.82</v>
       </c>
-      <c r="D53" vm="30">
-        <v>44927.416666666664</v>
+      <c r="D53" vm="41">
+        <v>44927.875</v>
       </c>
       <c r="E53">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>44979</v>
       </c>
       <c r="B54">
         <v>48.4</v>
       </c>
-      <c r="D54" vm="31">
-        <v>44927.458333333336</v>
+      <c r="D54" vm="42">
+        <v>44927.916666666664</v>
       </c>
       <c r="E54">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>44980</v>
       </c>
       <c r="B55">
         <v>54.87</v>
       </c>
-      <c r="D55" vm="32">
-        <v>44927.5</v>
+      <c r="D55" vm="43">
+        <v>44927.958333333336</v>
       </c>
       <c r="E55">
         <v>2.1866666666666665</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44981</v>
       </c>
       <c r="B56">
         <v>57</v>
       </c>
-      <c r="D56" vm="33">
-        <v>44927.541666666664</v>
+      <c r="D56" vm="44">
+        <v>44928</v>
       </c>
       <c r="E56">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>44982</v>
       </c>
       <c r="B57">
         <v>56.54</v>
       </c>
-      <c r="D57" vm="34">
-        <v>44927.583333333336</v>
+      <c r="D57" vm="45">
+        <v>44928.041666666664</v>
       </c>
       <c r="E57">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>44983</v>
       </c>
       <c r="B58">
         <v>47.72</v>
       </c>
-      <c r="D58" vm="35">
-        <v>44927.625</v>
+      <c r="D58" vm="46">
+        <v>44928.083333333336</v>
       </c>
       <c r="E58">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>44984</v>
       </c>
       <c r="B59">
         <v>50.41</v>
       </c>
-      <c r="D59" vm="36">
-        <v>44927.666666666664</v>
+      <c r="D59" vm="47">
+        <v>44928.125</v>
       </c>
       <c r="E59">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>44985</v>
       </c>
       <c r="B60">
         <v>53.64</v>
       </c>
-      <c r="D60" vm="37">
-        <v>44927.708333333336</v>
+      <c r="D60" vm="48">
+        <v>44928.166666666664</v>
       </c>
       <c r="E60">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>44986</v>
       </c>
       <c r="B61">
         <v>56.9</v>
       </c>
-      <c r="D61" vm="38">
-        <v>44927.75</v>
+      <c r="D61" vm="49">
+        <v>44928.208333333336</v>
       </c>
       <c r="E61">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>44987</v>
       </c>
       <c r="B62">
         <v>49.66</v>
       </c>
-      <c r="D62" vm="39">
-        <v>44927.791666666664</v>
+      <c r="D62" vm="50">
+        <v>44928.25</v>
       </c>
       <c r="E62">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>44988</v>
       </c>
       <c r="B63">
         <v>51.16</v>
       </c>
-      <c r="D63" vm="40">
-        <v>44927.833333333336</v>
+      <c r="D63" vm="51">
+        <v>44928.291666666664</v>
       </c>
       <c r="E63">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>44989</v>
       </c>
       <c r="B64">
         <v>46.59</v>
       </c>
-      <c r="D64" vm="41">
-        <v>44927.875</v>
+      <c r="D64" vm="52">
+        <v>44928.333333333336</v>
       </c>
       <c r="E64">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>44990</v>
       </c>
       <c r="B65">
         <v>46.18</v>
       </c>
-      <c r="D65" vm="42">
-        <v>44927.916666666664</v>
+      <c r="D65" vm="53">
+        <v>44928.375</v>
       </c>
       <c r="E65">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>44991</v>
       </c>
       <c r="B66">
         <v>56.25</v>
       </c>
-      <c r="D66" vm="43">
-        <v>44927.958333333336</v>
+      <c r="D66" vm="54">
+        <v>44928.416666666664</v>
       </c>
       <c r="E66">
-        <v>2.1866666666666665</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.0558333333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>44992</v>
       </c>
       <c r="B67">
         <v>59.01</v>
       </c>
-      <c r="D67" vm="44">
-        <v>44928</v>
+      <c r="D67" vm="55">
+        <v>44928.458333333336</v>
       </c>
       <c r="E67">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>44993</v>
       </c>
       <c r="B68">
         <v>51.9</v>
       </c>
-      <c r="D68" vm="45">
-        <v>44928.041666666664</v>
+      <c r="D68" vm="56">
+        <v>44928.5</v>
       </c>
       <c r="E68">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>44994</v>
       </c>
       <c r="B69">
         <v>57.31</v>
       </c>
-      <c r="D69" vm="46">
-        <v>44928.083333333336</v>
+      <c r="D69" vm="57">
+        <v>44928.541666666664</v>
       </c>
       <c r="E69">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>44995</v>
       </c>
       <c r="B70">
         <v>54.14</v>
       </c>
-      <c r="D70" vm="47">
-        <v>44928.125</v>
+      <c r="D70" vm="58">
+        <v>44928.583333333336</v>
       </c>
       <c r="E70">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>44996</v>
       </c>
       <c r="B71">
         <v>49.14</v>
       </c>
-      <c r="D71" vm="48">
-        <v>44928.166666666664</v>
+      <c r="D71" vm="59">
+        <v>44928.625</v>
       </c>
       <c r="E71">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>44997</v>
       </c>
       <c r="B72">
         <v>54.2</v>
       </c>
-      <c r="D72" vm="49">
-        <v>44928.208333333336</v>
+      <c r="D72" vm="60">
+        <v>44928.666666666664</v>
       </c>
       <c r="E72">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>44998</v>
       </c>
       <c r="B73">
         <v>60.12</v>
       </c>
-      <c r="D73" vm="50">
-        <v>44928.25</v>
+      <c r="D73" vm="61">
+        <v>44928.708333333336</v>
       </c>
       <c r="E73">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>44999</v>
       </c>
       <c r="B74">
         <v>52.29</v>
       </c>
-      <c r="D74" vm="51">
-        <v>44928.291666666664</v>
+      <c r="D74" vm="62">
+        <v>44928.75</v>
       </c>
       <c r="E74">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>45000</v>
       </c>
       <c r="B75">
         <v>60.32</v>
       </c>
-      <c r="D75" vm="52">
-        <v>44928.333333333336</v>
+      <c r="D75" vm="63">
+        <v>44928.791666666664</v>
       </c>
       <c r="E75">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>45001</v>
       </c>
       <c r="B76">
         <v>39.44</v>
       </c>
-      <c r="D76" vm="53">
-        <v>44928.375</v>
+      <c r="D76" vm="64">
+        <v>44928.833333333336</v>
       </c>
       <c r="E76">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>45002</v>
       </c>
       <c r="B77">
         <v>56.68</v>
       </c>
-      <c r="D77" vm="54">
-        <v>44928.416666666664</v>
+      <c r="D77" vm="65">
+        <v>44928.875</v>
       </c>
       <c r="E77">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>45003</v>
       </c>
       <c r="B78">
         <v>53.04</v>
       </c>
-      <c r="D78" vm="55">
-        <v>44928.458333333336</v>
+      <c r="D78" vm="66">
+        <v>44928.916666666664</v>
       </c>
       <c r="E78">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>45004</v>
       </c>
       <c r="B79">
         <v>51.14</v>
       </c>
-      <c r="D79" vm="56">
-        <v>44928.5</v>
+      <c r="D79" vm="67">
+        <v>44928.958333333336</v>
       </c>
       <c r="E79">
         <v>2.0558333333333336</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>45005</v>
       </c>
       <c r="B80">
         <v>53.13</v>
       </c>
-      <c r="D80" vm="57">
-        <v>44928.541666666664</v>
+      <c r="D80" vm="68">
+        <v>44929</v>
       </c>
       <c r="E80">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>45006</v>
       </c>
       <c r="B81">
         <v>42.77</v>
       </c>
-      <c r="D81" vm="58">
-        <v>44928.583333333336</v>
+      <c r="D81" vm="69">
+        <v>44929.041666666664</v>
       </c>
       <c r="E81">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>45007</v>
       </c>
       <c r="B82">
         <v>51.64</v>
       </c>
-      <c r="D82" vm="59">
-        <v>44928.625</v>
+      <c r="D82" vm="70">
+        <v>44929.083333333336</v>
       </c>
       <c r="E82">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>45008</v>
       </c>
       <c r="B83">
         <v>54.56</v>
       </c>
-      <c r="D83" vm="60">
-        <v>44928.666666666664</v>
+      <c r="D83" vm="71">
+        <v>44929.125</v>
       </c>
       <c r="E83">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>45009</v>
       </c>
       <c r="B84">
         <v>60.2</v>
       </c>
-      <c r="D84" vm="61">
-        <v>44928.708333333336</v>
+      <c r="D84" vm="72">
+        <v>44929.166666666664</v>
       </c>
       <c r="E84">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>45010</v>
       </c>
       <c r="B85">
         <v>50.25</v>
       </c>
-      <c r="D85" vm="62">
-        <v>44928.75</v>
+      <c r="D85" vm="73">
+        <v>44929.208333333336</v>
       </c>
       <c r="E85">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>45011</v>
       </c>
       <c r="B86">
         <v>48.83</v>
       </c>
-      <c r="D86" vm="63">
-        <v>44928.791666666664</v>
+      <c r="D86" vm="74">
+        <v>44929.25</v>
       </c>
       <c r="E86">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>45012</v>
       </c>
       <c r="B87">
         <v>50.4</v>
       </c>
-      <c r="D87" vm="64">
-        <v>44928.833333333336</v>
+      <c r="D87" vm="75">
+        <v>44929.291666666664</v>
       </c>
       <c r="E87">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>45013</v>
       </c>
       <c r="B88">
         <v>57.52</v>
       </c>
-      <c r="D88" vm="65">
-        <v>44928.875</v>
+      <c r="D88" vm="76">
+        <v>44929.333333333336</v>
       </c>
       <c r="E88">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>45014</v>
       </c>
       <c r="B89">
         <v>54.62</v>
       </c>
-      <c r="D89" vm="66">
-        <v>44928.916666666664</v>
+      <c r="D89" vm="77">
+        <v>44929.375</v>
       </c>
       <c r="E89">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>45015</v>
       </c>
       <c r="B90">
         <v>50.36</v>
       </c>
-      <c r="D90" vm="67">
-        <v>44928.958333333336</v>
+      <c r="D90" vm="78">
+        <v>44929.416666666664</v>
       </c>
       <c r="E90">
-        <v>2.0558333333333336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2.2212499999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>45016</v>
       </c>
       <c r="B91">
         <v>55.61</v>
       </c>
-      <c r="D91" vm="68">
-        <v>44929</v>
+      <c r="D91" vm="79">
+        <v>44929.458333333336</v>
       </c>
       <c r="E91">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>45017</v>
       </c>
       <c r="B92">
         <v>53.57</v>
       </c>
-      <c r="D92" vm="69">
-        <v>44929.041666666664</v>
+      <c r="D92" vm="80">
+        <v>44929.5</v>
       </c>
       <c r="E92">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>45018</v>
       </c>
       <c r="B93">
         <v>57.96</v>
       </c>
-      <c r="D93" vm="70">
-        <v>44929.083333333336</v>
+      <c r="D93" vm="81">
+        <v>44929.541666666664</v>
       </c>
       <c r="E93">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>45019</v>
       </c>
       <c r="B94">
         <v>49.64</v>
       </c>
-      <c r="D94" vm="71">
-        <v>44929.125</v>
+      <c r="D94" vm="82">
+        <v>44929.583333333336</v>
       </c>
       <c r="E94">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>45020</v>
       </c>
       <c r="B95">
         <v>51.55</v>
       </c>
-      <c r="D95" vm="72">
-        <v>44929.166666666664</v>
+      <c r="D95" vm="83">
+        <v>44929.625</v>
       </c>
       <c r="E95">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>45021</v>
       </c>
       <c r="B96">
         <v>51.26</v>
       </c>
-      <c r="D96" vm="73">
-        <v>44929.208333333336</v>
+      <c r="D96" vm="84">
+        <v>44929.666666666664</v>
       </c>
       <c r="E96">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>45022</v>
       </c>
       <c r="B97">
         <v>45.94</v>
       </c>
-      <c r="D97" vm="74">
-        <v>44929.25</v>
+      <c r="D97" vm="85">
+        <v>44929.708333333336</v>
       </c>
       <c r="E97">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>45023</v>
       </c>
       <c r="B98">
         <v>54.77</v>
       </c>
-      <c r="D98" vm="75">
-        <v>44929.291666666664</v>
+      <c r="D98" vm="86">
+        <v>44929.75</v>
       </c>
       <c r="E98">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>45024</v>
       </c>
       <c r="B99">
         <v>54.63</v>
       </c>
-      <c r="D99" vm="76">
-        <v>44929.333333333336</v>
+      <c r="D99" vm="87">
+        <v>44929.791666666664</v>
       </c>
       <c r="E99">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>45025</v>
       </c>
       <c r="B100">
         <v>53.38</v>
       </c>
-      <c r="D100" vm="77">
-        <v>44929.375</v>
+      <c r="D100" vm="88">
+        <v>44929.833333333336</v>
       </c>
       <c r="E100">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>45026</v>
       </c>
       <c r="B101">
         <v>52.22</v>
       </c>
-      <c r="D101" vm="78">
-        <v>44929.416666666664</v>
+      <c r="D101" vm="89">
+        <v>44929.875</v>
       </c>
       <c r="E101">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>45027</v>
       </c>
       <c r="B102">
         <v>46.35</v>
       </c>
-      <c r="D102" vm="79">
-        <v>44929.458333333336</v>
+      <c r="D102" vm="90">
+        <v>44929.916666666664</v>
       </c>
       <c r="E102">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>45028</v>
       </c>
       <c r="B103">
         <v>51.36</v>
       </c>
-      <c r="D103" vm="80">
-        <v>44929.5</v>
+      <c r="D103" vm="91">
+        <v>44929.958333333336</v>
       </c>
       <c r="E103">
         <v>2.2212499999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>45029</v>
       </c>
       <c r="B104">
         <v>51.78</v>
       </c>
-      <c r="D104" vm="81">
-        <v>44929.541666666664</v>
-      </c>
-      <c r="E104">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>45030</v>
       </c>
       <c r="B105">
         <v>49.52</v>
       </c>
-      <c r="D105" vm="82">
-        <v>44929.583333333336</v>
-      </c>
-      <c r="E105">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>45031</v>
       </c>
       <c r="B106">
         <v>52.76</v>
       </c>
-      <c r="D106" vm="83">
-        <v>44929.625</v>
-      </c>
-      <c r="E106">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>45032</v>
       </c>
       <c r="B107">
         <v>55.62</v>
       </c>
-      <c r="D107" vm="84">
-        <v>44929.666666666664</v>
-      </c>
-      <c r="E107">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>45033</v>
       </c>
       <c r="B108">
         <v>63.06</v>
       </c>
-      <c r="D108" vm="85">
-        <v>44929.708333333336</v>
-      </c>
-      <c r="E108">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>45034</v>
       </c>
       <c r="B109">
         <v>54.54</v>
       </c>
-      <c r="D109" vm="86">
-        <v>44929.75</v>
-      </c>
-      <c r="E109">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>45035</v>
       </c>
       <c r="B110">
         <v>54.99</v>
       </c>
-      <c r="D110" vm="87">
-        <v>44929.791666666664</v>
-      </c>
-      <c r="E110">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>45036</v>
       </c>
       <c r="B111">
         <v>53.36</v>
       </c>
-      <c r="D111" vm="88">
-        <v>44929.833333333336</v>
-      </c>
-      <c r="E111">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>45037</v>
       </c>
       <c r="B112">
         <v>44.17</v>
       </c>
-      <c r="D112" vm="89">
-        <v>44929.875</v>
-      </c>
-      <c r="E112">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>45038</v>
       </c>
       <c r="B113">
         <v>53.67</v>
       </c>
-      <c r="D113" vm="90">
-        <v>44929.916666666664</v>
-      </c>
-      <c r="E113">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>45039</v>
       </c>
       <c r="B114">
         <v>54.14</v>
       </c>
-      <c r="D114" vm="91">
-        <v>44929.958333333336</v>
-      </c>
-      <c r="E114">
-        <v>2.2212499999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>45040</v>
       </c>
@@ -3757,7 +3693,7 @@
         <v>66.19</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>45041</v>
       </c>
@@ -3765,7 +3701,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>45042</v>
       </c>
@@ -3773,7 +3709,7 @@
         <v>55.45</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>45043</v>
       </c>
@@ -3781,7 +3717,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>45044</v>
       </c>
@@ -3789,7 +3725,7 @@
         <v>48.16</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>45045</v>
       </c>
@@ -3797,7 +3733,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>45046</v>
       </c>
@@ -3805,7 +3741,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>45047</v>
       </c>
@@ -3813,7 +3749,7 @@
         <v>58.06</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>45048</v>
       </c>
@@ -3821,7 +3757,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>45049</v>
       </c>
@@ -3829,7 +3765,7 @@
         <v>61.19</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>45050</v>
       </c>
@@ -3837,7 +3773,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>45051</v>
       </c>
@@ -3845,7 +3781,7 @@
         <v>57.18</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>45052</v>
       </c>
@@ -3853,7 +3789,7 @@
         <v>65.23</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>45053</v>
       </c>
@@ -3861,7 +3797,7 @@
         <v>49.36</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>45054</v>
       </c>
@@ -3869,7 +3805,7 @@
         <v>51.52</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>45055</v>
       </c>
@@ -3877,7 +3813,7 @@
         <v>54.88</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>45056</v>
       </c>
@@ -3885,7 +3821,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>45057</v>
       </c>
@@ -3893,7 +3829,7 @@
         <v>46.7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>45058</v>
       </c>
@@ -3901,7 +3837,7 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>45059</v>
       </c>
@@ -3909,7 +3845,7 @@
         <v>49.21</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>45060</v>
       </c>
@@ -3917,7 +3853,7 @@
         <v>56.92</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>45061</v>
       </c>
@@ -3925,7 +3861,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>45062</v>
       </c>
@@ -3933,7 +3869,7 @@
         <v>62.37</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>45063</v>
       </c>
@@ -3941,7 +3877,7 @@
         <v>50.74</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>45064</v>
       </c>
@@ -3949,7 +3885,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>45065</v>
       </c>
@@ -3957,7 +3893,7 @@
         <v>58.79</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>45066</v>
       </c>
@@ -3965,7 +3901,7 @@
         <v>48.61</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>45067</v>
       </c>
@@ -3973,7 +3909,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>45068</v>
       </c>
@@ -3981,7 +3917,7 @@
         <v>61.36</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>45069</v>
       </c>
@@ -3989,7 +3925,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>45070</v>
       </c>
@@ -3997,7 +3933,7 @@
         <v>55.82</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>45071</v>
       </c>
@@ -4005,7 +3941,7 @@
         <v>56.23</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>45072</v>
       </c>
@@ -4013,7 +3949,7 @@
         <v>58.87</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>45073</v>
       </c>
@@ -4021,7 +3957,7 @@
         <v>48.82</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>45074</v>
       </c>
@@ -4029,7 +3965,7 @@
         <v>48.43</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>45075</v>
       </c>
@@ -4037,7 +3973,7 @@
         <v>57.68</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>45076</v>
       </c>
@@ -4045,7 +3981,7 @@
         <v>56.59</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>45077</v>
       </c>
@@ -4053,7 +3989,7 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>45078</v>
       </c>
@@ -4061,7 +3997,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>45079</v>
       </c>
@@ -4069,7 +4005,7 @@
         <v>51.81</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>45080</v>
       </c>
@@ -4077,7 +4013,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>45081</v>
       </c>
@@ -4085,7 +4021,7 @@
         <v>56.74</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>45082</v>
       </c>
@@ -4093,7 +4029,7 @@
         <v>51.74</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>45083</v>
       </c>
@@ -4101,7 +4037,7 @@
         <v>64.67</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>45084</v>
       </c>
@@ -4109,7 +4045,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>45085</v>
       </c>
@@ -4117,7 +4053,7 @@
         <v>49.45</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>45086</v>
       </c>
@@ -4125,7 +4061,7 @@
         <v>58.73</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>45087</v>
       </c>
@@ -4133,7 +4069,7 @@
         <v>50.61</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>45088</v>
       </c>
@@ -4141,7 +4077,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>45089</v>
       </c>
@@ -4149,7 +4085,7 @@
         <v>61.34</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>45090</v>
       </c>
@@ -4157,7 +4093,7 @@
         <v>51.48</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>45091</v>
       </c>
@@ -4165,7 +4101,7 @@
         <v>60.43</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>45092</v>
       </c>
@@ -4173,7 +4109,7 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>45093</v>
       </c>
@@ -4181,7 +4117,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>45094</v>
       </c>
@@ -4189,7 +4125,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>45095</v>
       </c>
@@ -4197,7 +4133,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>45096</v>
       </c>
@@ -4205,7 +4141,7 @@
         <v>52.02</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>45097</v>
       </c>
@@ -4213,7 +4149,7 @@
         <v>51.37</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>45098</v>
       </c>
@@ -4221,7 +4157,7 @@
         <v>51.78</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>45099</v>
       </c>
@@ -4229,7 +4165,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>45100</v>
       </c>
@@ -4237,7 +4173,7 @@
         <v>57.63</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>45101</v>
       </c>
@@ -4245,7 +4181,7 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>45102</v>
       </c>
@@ -4253,7 +4189,7 @@
         <v>60.13</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>45103</v>
       </c>
@@ -4261,7 +4197,7 @@
         <v>56.09</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>45104</v>
       </c>
@@ -4269,7 +4205,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>45105</v>
       </c>
@@ -4277,7 +4213,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>45106</v>
       </c>
@@ -4285,7 +4221,7 @@
         <v>69.73</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>45107</v>
       </c>
@@ -4293,7 +4229,7 @@
         <v>59.29</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>45108</v>
       </c>
@@ -4301,7 +4237,7 @@
         <v>51.91</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>45109</v>
       </c>
@@ -4309,7 +4245,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>45110</v>
       </c>
@@ -4317,7 +4253,7 @@
         <v>58.68</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>45111</v>
       </c>
@@ -4325,7 +4261,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>45112</v>
       </c>
@@ -4333,7 +4269,7 @@
         <v>59.91</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>45113</v>
       </c>
@@ -4341,7 +4277,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>45114</v>
       </c>
@@ -4349,7 +4285,7 @@
         <v>56.04</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>45115</v>
       </c>
@@ -4357,7 +4293,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>45116</v>
       </c>
@@ -4365,7 +4301,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>45117</v>
       </c>
@@ -4373,7 +4309,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>45118</v>
       </c>
@@ -4381,7 +4317,7 @@
         <v>60.82</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>45119</v>
       </c>
@@ -4389,7 +4325,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>45120</v>
       </c>
@@ -4397,7 +4333,7 @@
         <v>50.38</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>45121</v>
       </c>
@@ -4405,7 +4341,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>45122</v>
       </c>
@@ -4413,7 +4349,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>45123</v>
       </c>
@@ -4421,7 +4357,7 @@
         <v>52.29</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>45124</v>
       </c>
@@ -4429,7 +4365,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>45125</v>
       </c>
@@ -4437,7 +4373,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>45126</v>
       </c>
@@ -4445,7 +4381,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>45127</v>
       </c>
@@ -4453,7 +4389,7 @@
         <v>58.64</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>45128</v>
       </c>
@@ -4461,7 +4397,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>45129</v>
       </c>
@@ -4469,7 +4405,7 @@
         <v>62.33</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>45130</v>
       </c>
@@ -4477,7 +4413,7 @@
         <v>62.22</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>45131</v>
       </c>
@@ -4485,7 +4421,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>45132</v>
       </c>
@@ -4493,7 +4429,7 @@
         <v>52.33</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>45133</v>
       </c>
@@ -4501,7 +4437,7 @@
         <v>59.63</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>45134</v>
       </c>
@@ -4509,7 +4445,7 @@
         <v>59.66</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>45135</v>
       </c>
@@ -4517,7 +4453,7 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>45136</v>
       </c>
@@ -4525,7 +4461,7 @@
         <v>76.42</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>45137</v>
       </c>
@@ -4533,7 +4469,7 @@
         <v>60.05</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>45138</v>
       </c>
@@ -4541,7 +4477,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>45139</v>
       </c>
@@ -4549,7 +4485,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>45140</v>
       </c>
@@ -4557,7 +4493,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>45141</v>
       </c>
@@ -4565,7 +4501,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>45142</v>
       </c>
@@ -4573,7 +4509,7 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>45143</v>
       </c>
@@ -4581,7 +4517,7 @@
         <v>53.53</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>45144</v>
       </c>
@@ -4589,7 +4525,7 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>45145</v>
       </c>
@@ -4597,7 +4533,7 @@
         <v>55.04</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>45146</v>
       </c>
@@ -4605,7 +4541,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>45147</v>
       </c>
@@ -4613,7 +4549,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>45148</v>
       </c>
@@ -4621,7 +4557,7 @@
         <v>48.23</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>45149</v>
       </c>
@@ -4629,7 +4565,7 @@
         <v>61.03</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>45150</v>
       </c>
@@ -4637,7 +4573,7 @@
         <v>49.57</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>45151</v>
       </c>
@@ -4645,7 +4581,7 @@
         <v>55.31</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>45152</v>
       </c>
@@ -4653,7 +4589,7 @@
         <v>63.15</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>45153</v>
       </c>
@@ -4661,7 +4597,7 @@
         <v>58.06</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>45154</v>
       </c>
@@ -4669,7 +4605,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>45155</v>
       </c>
@@ -4677,7 +4613,7 @@
         <v>54.23</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>45156</v>
       </c>
@@ -4685,7 +4621,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>45157</v>
       </c>
@@ -4693,7 +4629,7 @@
         <v>54.22</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>45158</v>
       </c>
@@ -4701,7 +4637,7 @@
         <v>58.99</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>45159</v>
       </c>
@@ -4709,7 +4645,7 @@
         <v>58.17</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>45160</v>
       </c>
@@ -4717,7 +4653,7 @@
         <v>54.72</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>45161</v>
       </c>
@@ -4725,7 +4661,7 @@
         <v>68.73</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>45162</v>
       </c>
@@ -4733,7 +4669,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>45163</v>
       </c>
@@ -4741,7 +4677,7 @@
         <v>47.96</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>45164</v>
       </c>
@@ -4749,7 +4685,7 @@
         <v>59.05</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>45165</v>
       </c>
@@ -4757,7 +4693,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>45166</v>
       </c>
@@ -4765,7 +4701,7 @@
         <v>62.45</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>45167</v>
       </c>
@@ -4773,7 +4709,7 @@
         <v>54.26</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>45168</v>
       </c>
@@ -4781,7 +4717,7 @@
         <v>57.68</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>45169</v>
       </c>
@@ -4789,7 +4725,7 @@
         <v>60.81</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>45170</v>
       </c>
@@ -4797,7 +4733,7 @@
         <v>62.65</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>45171</v>
       </c>
@@ -4805,7 +4741,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>45172</v>
       </c>
@@ -4813,7 +4749,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>45173</v>
       </c>
@@ -4821,7 +4757,7 @@
         <v>56.05</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>45174</v>
       </c>
@@ -4829,7 +4765,7 @@
         <v>55.19</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>45175</v>
       </c>
@@ -4837,7 +4773,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>45176</v>
       </c>
@@ -4845,7 +4781,7 @@
         <v>60.55</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>45177</v>
       </c>
@@ -4853,7 +4789,7 @@
         <v>52.26</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>45178</v>
       </c>
@@ -4861,7 +4797,7 @@
         <v>63.19</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>45179</v>
       </c>
@@ -4869,7 +4805,7 @@
         <v>69.239999999999995</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>45180</v>
       </c>
@@ -4877,7 +4813,7 @@
         <v>63.83</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>45181</v>
       </c>
@@ -4885,7 +4821,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>45182</v>
       </c>
@@ -4893,7 +4829,7 @@
         <v>56.31</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>45183</v>
       </c>
@@ -4901,7 +4837,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>45184</v>
       </c>
@@ -4909,7 +4845,7 @@
         <v>55.26</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>45185</v>
       </c>
@@ -4917,7 +4853,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>45186</v>
       </c>
@@ -4925,7 +4861,7 @@
         <v>62.74</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>45187</v>
       </c>
@@ -4933,7 +4869,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>45188</v>
       </c>
@@ -4941,7 +4877,7 @@
         <v>58.64</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>45189</v>
       </c>
@@ -4949,7 +4885,7 @@
         <v>42.77</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>45190</v>
       </c>
@@ -4957,7 +4893,7 @@
         <v>53.88</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>45191</v>
       </c>
@@ -4965,7 +4901,7 @@
         <v>57.78</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>45192</v>
       </c>
@@ -4973,7 +4909,7 @@
         <v>52.84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>45193</v>
       </c>
@@ -4981,7 +4917,7 @@
         <v>67.27</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>45194</v>
       </c>
@@ -4989,7 +4925,7 @@
         <v>51.99</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>45195</v>
       </c>
@@ -4997,7 +4933,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>45196</v>
       </c>
@@ -5005,7 +4941,7 @@
         <v>59.87</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>45197</v>
       </c>
@@ -5013,7 +4949,7 @@
         <v>66.45</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>45198</v>
       </c>
@@ -5021,7 +4957,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>45199</v>
       </c>
@@ -5029,7 +4965,7 @@
         <v>65.13</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>45200</v>
       </c>
@@ -5037,7 +4973,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>45201</v>
       </c>
@@ -5045,7 +4981,7 @@
         <v>54.48</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>45202</v>
       </c>
@@ -5053,7 +4989,7 @@
         <v>61.73</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>45203</v>
       </c>
@@ -5061,7 +4997,7 @@
         <v>60.45</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>45204</v>
       </c>
@@ -5069,7 +5005,7 @@
         <v>56.49</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>45205</v>
       </c>
@@ -5077,7 +5013,7 @@
         <v>59.87</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>45206</v>
       </c>
@@ -5085,7 +5021,7 @@
         <v>57.63</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>45207</v>
       </c>
@@ -5093,7 +5029,7 @@
         <v>60.16</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>45208</v>
       </c>
@@ -5101,7 +5037,7 @@
         <v>62.93</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>45209</v>
       </c>
@@ -5109,7 +5045,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>45210</v>
       </c>
@@ -5117,7 +5053,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>45211</v>
       </c>
@@ -5125,7 +5061,7 @@
         <v>70.39</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>45212</v>
       </c>
@@ -5133,7 +5069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>45213</v>
       </c>
@@ -5141,7 +5077,7 @@
         <v>59.04</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>45214</v>
       </c>
@@ -5149,7 +5085,7 @@
         <v>62.77</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>45215</v>
       </c>
@@ -5157,7 +5093,7 @@
         <v>61.27</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>45216</v>
       </c>
@@ -5165,7 +5101,7 @@
         <v>56.78</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>45217</v>
       </c>
@@ -5173,7 +5109,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>45218</v>
       </c>
@@ -5181,7 +5117,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>45219</v>
       </c>
@@ -5189,7 +5125,7 @@
         <v>57.05</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>45220</v>
       </c>
@@ -5197,7 +5133,7 @@
         <v>64.28</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>45221</v>
       </c>
@@ -5205,7 +5141,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>45222</v>
       </c>
@@ -5213,7 +5149,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>45223</v>
       </c>
@@ -5221,7 +5157,7 @@
         <v>64.63</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>45224</v>
       </c>
@@ -5229,7 +5165,7 @@
         <v>61.71</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>45225</v>
       </c>
@@ -5237,7 +5173,7 @@
         <v>64.27</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>45226</v>
       </c>
@@ -5245,7 +5181,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>45227</v>
       </c>
@@ -5253,7 +5189,7 @@
         <v>56.13</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>45228</v>
       </c>
@@ -5261,7 +5197,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>45229</v>
       </c>
@@ -5269,7 +5205,7 @@
         <v>64.08</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>45230</v>
       </c>
@@ -5277,7 +5213,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>45231</v>
       </c>
@@ -5285,7 +5221,7 @@
         <v>60.31</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>45232</v>
       </c>
@@ -5293,7 +5229,7 @@
         <v>61.03</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>45233</v>
       </c>
@@ -5301,7 +5237,7 @@
         <v>66.87</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>45234</v>
       </c>
@@ -5309,7 +5245,7 @@
         <v>57.56</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>45235</v>
       </c>
@@ -5317,7 +5253,7 @@
         <v>63.28</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>45236</v>
       </c>
@@ -5325,7 +5261,7 @@
         <v>59.57</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>45237</v>
       </c>
@@ -5333,7 +5269,7 @@
         <v>59.53</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>45238</v>
       </c>
@@ -5341,7 +5277,7 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>45239</v>
       </c>
@@ -5349,7 +5285,7 @@
         <v>64.81</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>45240</v>
       </c>
@@ -5357,7 +5293,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>45241</v>
       </c>
@@ -5365,7 +5301,7 @@
         <v>67.28</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>45242</v>
       </c>
@@ -5373,7 +5309,7 @@
         <v>60.89</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>45243</v>
       </c>
@@ -5381,7 +5317,7 @@
         <v>64.23</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>45244</v>
       </c>
@@ -5389,7 +5325,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>45245</v>
       </c>
@@ -5397,7 +5333,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>45246</v>
       </c>
@@ -5405,7 +5341,7 @@
         <v>60.27</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>45247</v>
       </c>
@@ -5413,7 +5349,7 @@
         <v>61.44</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>45248</v>
       </c>
@@ -5421,7 +5357,7 @@
         <v>63.97</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>45249</v>
       </c>
@@ -5429,7 +5365,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>45250</v>
       </c>
@@ -5437,7 +5373,7 @@
         <v>71.52</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>45251</v>
       </c>
@@ -5445,7 +5381,7 @@
         <v>56.07</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>45252</v>
       </c>
@@ -5453,7 +5389,7 @@
         <v>55.06</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>45253</v>
       </c>
@@ -5461,7 +5397,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>45254</v>
       </c>
@@ -5469,7 +5405,7 @@
         <v>65.16</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>45255</v>
       </c>
@@ -5477,7 +5413,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>45256</v>
       </c>
@@ -5485,7 +5421,7 @@
         <v>64.41</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>45257</v>
       </c>
@@ -5493,7 +5429,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>45258</v>
       </c>
@@ -5501,7 +5437,7 @@
         <v>56.85</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>45259</v>
       </c>
@@ -5509,7 +5445,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>45260</v>
       </c>
@@ -5517,7 +5453,7 @@
         <v>58.02</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>45261</v>
       </c>
@@ -5525,7 +5461,7 @@
         <v>66.31</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>45262</v>
       </c>
@@ -5533,7 +5469,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>45263</v>
       </c>
@@ -5541,7 +5477,7 @@
         <v>57.38</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>45264</v>
       </c>
@@ -5549,7 +5485,7 @@
         <v>59.93</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>45265</v>
       </c>
@@ -5557,7 +5493,7 @@
         <v>63.64</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>45266</v>
       </c>
@@ -5565,7 +5501,7 @@
         <v>58.79</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>45267</v>
       </c>
@@ -5573,7 +5509,7 @@
         <v>57.53</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>45268</v>
       </c>
@@ -5581,7 +5517,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>45269</v>
       </c>
@@ -5589,7 +5525,7 @@
         <v>62.94</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>45270</v>
       </c>
@@ -5597,7 +5533,7 @@
         <v>59.21</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>45271</v>
       </c>
@@ -5605,7 +5541,7 @@
         <v>59.43</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>45272</v>
       </c>
@@ -5613,7 +5549,7 @@
         <v>62.98</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>45273</v>
       </c>
@@ -5621,7 +5557,7 @@
         <v>54.61</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>45274</v>
       </c>
@@ -5629,7 +5565,7 @@
         <v>54.85</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>45275</v>
       </c>
@@ -5637,7 +5573,7 @@
         <v>58.33</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>45276</v>
       </c>
@@ -5645,7 +5581,7 @@
         <v>60.88</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>45277</v>
       </c>
@@ -5653,7 +5589,7 @@
         <v>63.54</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>45278</v>
       </c>
@@ -5661,7 +5597,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>45279</v>
       </c>
@@ -5669,7 +5605,7 @@
         <v>66.34</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>45280</v>
       </c>
@@ -5677,7 +5613,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>45281</v>
       </c>
@@ -5685,7 +5621,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>45282</v>
       </c>
@@ -5693,7 +5629,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>45283</v>
       </c>
@@ -5701,7 +5637,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>45284</v>
       </c>
@@ -5709,7 +5645,7 @@
         <v>60.78</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>45285</v>
       </c>
@@ -5717,7 +5653,7 @@
         <v>63.87</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>45286</v>
       </c>
@@ -5725,7 +5661,7 @@
         <v>58.16</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>45287</v>
       </c>
@@ -5733,7 +5669,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>45288</v>
       </c>
@@ -5741,7 +5677,7 @@
         <v>70.03</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>45289</v>
       </c>
@@ -5749,7 +5685,7 @@
         <v>61.85</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>45290</v>
       </c>
@@ -5757,7 +5693,7 @@
         <v>64.44</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>45291</v>
       </c>
@@ -5765,7 +5701,7 @@
         <v>65.92</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>45292</v>
       </c>

--- a/6-resampling/6-resampling-solution.xlsx
+++ b/6-resampling/6-resampling-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\6-resampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEAF62-12AA-49E2-AD81-856F7054AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502FC14-78F0-4E6D-8C05-97CAA433A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6-resampling" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
